--- a/biology/Botanique/Spergularia_rubra/Spergularia_rubra.xlsx
+++ b/biology/Botanique/Spergularia_rubra/Spergularia_rubra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La spergulaire rouge, appelée aussi sabline rouge, Spergularia rubra ou Spergula rubra, est une plante herbacée annuelle ou bisannuelle de la famille des Caryophyllacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Arenaria rubra L.,
 Lepigonum rubrum Wahlberg,
@@ -545,15 +559,17 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Feuilles inférieures disposées en rosette lâche.
 Tiges grêles étalées
 Fleurs  roses (3 mm) avec les pétales plus courts que les sépales.
 7 à 10 étamines
 fruit: capsule
-La floraison a lieu d'avril à août[1].
-La spergulaire rouge peut être confondue avec la spergulaire pourpre[2]. Mais cette dernière est plus méditerranéenne, et sa fleur possède des pétales plus grands que les sépales.
+La floraison a lieu d'avril à août.
+La spergulaire rouge peut être confondue avec la spergulaire pourpre. Mais cette dernière est plus méditerranéenne, et sa fleur possède des pétales plus grands que les sépales.
 </t>
         </is>
       </c>
@@ -582,7 +598,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Prés, bords des chemins
 </t>
@@ -613,9 +631,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eurasiatique, des régions tempérées. Moins fréquent en région méditerranéenne[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurasiatique, des régions tempérées. Moins fréquent en région méditerranéenne.
 </t>
         </is>
       </c>
